--- a/CourseOutline.xlsx
+++ b/CourseOutline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imjayca/Documents/GitHub/UI-T-Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JayAlien\Documents\GitHub\UI-T-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="460" windowWidth="17300" windowHeight="9180" tabRatio="500"/>
+    <workbookView xWindow="11505" yWindow="915" windowWidth="17295" windowHeight="9180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,28 +29,69 @@
     <t>CoveredTopics</t>
   </si>
   <si>
-    <t>HomeWork</t>
+    <t>Sessions</t>
   </si>
   <si>
-    <t xml:space="preserve">HMTL tables
-HTML5 semactics
-Introduction to CSS
+    <t>Assigned HomeWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a HTML page that shows a table.
+Table is bordered
+Header should be colored
+Create separate paragraphs.
+Each para shall have a class or ID but not both.
+Create a separate stylesheet and do experiments.
 </t>
   </si>
   <si>
-    <t>Create a HTML page that shows a table.
-Table is boradered, header should be colored, create separate paragraph, each para shall have a class or ID but not both and the page shall have a separate stylesheet and do experiments.</t>
-  </si>
-  <si>
-    <t>Sessions</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HMTL tables
+HTML5 semactics
+Introduction to CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -89,6 +130,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,44 +413,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D4"/>
+  <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="58.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>42199</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>42199</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CourseOutline.xlsx
+++ b/CourseOutline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JayAlien\Documents\GitHub\UI-T-Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imjayca/Documents/GitHub/UI-T-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="915" windowWidth="17295" windowHeight="9180" tabRatio="500"/>
+    <workbookView xWindow="6480" yWindow="460" windowWidth="18380" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CoveredTopics</t>
   </si>
@@ -68,6 +68,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Create a navigation panel
+Check Email</t>
   </si>
 </sst>
 </file>
@@ -413,22 +417,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="4" max="4" width="58.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -439,8 +443,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>42199</v>
       </c>
@@ -449,6 +453,14 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>42201</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CourseOutline.xlsx
+++ b/CourseOutline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imjayca/Documents/GitHub/UI-T-Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jWinPro10\Documents\GitHub\UI-T-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="460" windowWidth="18380" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="6480" yWindow="915" windowWidth="18375" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CoveredTopics</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>Create a navigation panel
 Check Email</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -417,22 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="58.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -443,8 +446,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>42199</v>
       </c>
@@ -455,12 +458,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>42201</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>42222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
